--- a/medicine/Psychotrope/Mild_Seven/Mild_Seven.xlsx
+++ b/medicine/Psychotrope/Mild_Seven/Mild_Seven.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mild Seven (マイルドセブン, Mairudo Sebun?) est une marque de cigarettes produite par la société Japan Tobacco. Mild Seven est à la troisième place du nombre de cigarettes fumées dans le monde, derrière Marlboro et Camel. Fabriquées à Tokyo à l'origine par Japan Tobacco Inc., elles eurent un grand succès depuis leur création en 1977.
 Le 1er février 2013, la marque change de nom pour celui de Mevius (メビウス).
@@ -512,7 +524,9 @@
           <t>Sponsoring en Formule 1</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Japan Tobacco a été, par le biais de Mild Seven, le principal sponsor de l'équipe Benetton à partir de 1994. L'association continua après le rachat de Benetton par Renault. L'entreprise devait sponsoriser Renault jusqu'à la fin de la saison 2009 de Formule 1, mais elle a mis fin à ce parrainage à la fin de la saison 2006 en raison de l'interdiction de la publicité pour le tabac en Europe.
 À part Benetton et Renault, Mild Seven a aussi parrainé les écuries Tyrrell Racing de 1993 à 1996 et Minardi en 1997.
